--- a/data/trans_camb/P16A97-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A97-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 3,86</t>
+          <t>0,21; 3,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,11</t>
+          <t>0,24; 3,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,82; -0,21</t>
+          <t>-1,79; -0,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 7,44</t>
+          <t>0,69; 7,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 7,47</t>
+          <t>0,87; 7,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,12; -0,8</t>
+          <t>-3,84; -0,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,47</t>
+          <t>0,93; 4,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,55</t>
+          <t>0,91; 4,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; -0,59</t>
+          <t>-2,1; -0,53</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,31; —</t>
+          <t>-24,09; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,43; —</t>
+          <t>-17,87; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,48; 999,98</t>
+          <t>4,69; 808,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,19; 888,91</t>
+          <t>12,13; 851,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>41,02; 666,97</t>
+          <t>40,71; 644,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>40,87; 660,09</t>
+          <t>35,66; 612,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 7,39</t>
+          <t>2,12; 7,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 3,96</t>
+          <t>-0,25; 4,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; -0,82</t>
+          <t>-3,15; -0,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 11,4</t>
+          <t>1,72; 11,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 3,47</t>
+          <t>-3,58; 4,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,6; -4,64</t>
+          <t>-9,95; -4,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 7,83</t>
+          <t>2,89; 7,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,53</t>
+          <t>-0,71; 3,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,12; -2,62</t>
+          <t>-5,12; -2,59</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>81,78; 700,31</t>
+          <t>68,45; 748,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,65; 386,77</t>
+          <t>-20,94; 471,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,84; 220,74</t>
+          <t>15,88; 214,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,31; 66,69</t>
+          <t>-42,42; 79,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>64,53; 267,58</t>
+          <t>59,27; 267,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 120,15</t>
+          <t>-17,63; 108,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 9,1</t>
+          <t>3,38; 9,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,0</t>
+          <t>0,5; 5,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,35; -0,83</t>
+          <t>-3,24; -0,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,89; 17,78</t>
+          <t>8,09; 17,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,3; 13,12</t>
+          <t>4,44; 12,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,06; -3,48</t>
+          <t>-8,07; -3,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,26; 11,32</t>
+          <t>6,24; 11,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,74</t>
+          <t>2,89; 7,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,75; -2,33</t>
+          <t>-4,75; -2,36</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>119,43; 1009,05</t>
+          <t>114,64; 950,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,11; 544,64</t>
+          <t>6,71; 494,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>106,96; 448,99</t>
+          <t>105,45; 449,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>53,06; 322,17</t>
+          <t>59,6; 309,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>144,89; 444,31</t>
+          <t>138,73; 453,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>67,98; 301,98</t>
+          <t>67,23; 300,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,31; 13,41</t>
+          <t>5,08; 13,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,35; 14,01</t>
+          <t>5,37; 13,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,59; -1,34</t>
+          <t>-5,72; -1,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,2; 29,65</t>
+          <t>14,09; 29,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,76; 17,27</t>
+          <t>4,55; 17,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,03; -10,57</t>
+          <t>-19,37; -10,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,39; 19,42</t>
+          <t>11,12; 19,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,13; 14,68</t>
+          <t>6,9; 14,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,68; -6,07</t>
+          <t>-10,81; -6,16</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>93,15; 758,08</t>
+          <t>81,48; 766,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>117,8; 838,21</t>
+          <t>85,43; 784,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>85,36; 261,87</t>
+          <t>79,24; 259,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,9; 150,92</t>
+          <t>25,11; 149,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>115,38; 294,73</t>
+          <t>106,45; 293,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>74,98; 227,93</t>
+          <t>66,93; 225,64</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17,41; 37,34</t>
+          <t>17,44; 36,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 15,92</t>
+          <t>0,07; 17,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-19,05; -7,5</t>
+          <t>-19,01; -7,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>26,66; 47,38</t>
+          <t>26,57; 46,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,47; 29,2</t>
+          <t>7,67; 30,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-31,75; -16,89</t>
+          <t>-31,57; -17,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>25,0; 39,34</t>
+          <t>24,69; 39,15</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,67; 19,17</t>
+          <t>5,56; 18,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-23,68; -13,87</t>
+          <t>-23,19; -14,04</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>95,74; 441,83</t>
+          <t>89,76; 436,44</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 186,5</t>
+          <t>-0,2; 206,82</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>85,1; 266,87</t>
+          <t>90,78; 261,91</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>27,57; 158,09</t>
+          <t>25,51; 156,69</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>112,08; 278,03</t>
+          <t>110,95; 268,14</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>27,24; 130,33</t>
+          <t>24,48; 124,22</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>32,27; 53,53</t>
+          <t>33,06; 54,74</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>16,77; 37,76</t>
+          <t>16,3; 38,92</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-42,11; -25,36</t>
+          <t>-42,16; -25,39</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>34,84; 57,81</t>
+          <t>34,4; 57,31</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>21,27; 46,23</t>
+          <t>21,35; 46,02</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-49,86; -28,87</t>
+          <t>-48,98; -28,69</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>38,04; 52,83</t>
+          <t>37,77; 52,75</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>23,32; 39,83</t>
+          <t>22,78; 39,9</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-42,68; -29,3</t>
+          <t>-42,56; -29,93</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>80,14; 210,0</t>
+          <t>79,69; 214,68</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>42,29; 141,72</t>
+          <t>39,55; 157,43</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>69,82; 204,93</t>
+          <t>69,46; 192,92</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>43,22; 151,49</t>
+          <t>44,59; 150,63</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>91,69; 176,27</t>
+          <t>90,88; 175,08</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>55,47; 131,56</t>
+          <t>54,61; 133,15</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>11,46; 15,22</t>
+          <t>11,35; 15,45</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>6,77; 10,29</t>
+          <t>6,74; 10,38</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,24; -3,45</t>
+          <t>-5,21; -3,4</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>22,37; 27,99</t>
+          <t>21,66; 27,87</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>11,11; 16,2</t>
+          <t>11,02; 16,55</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-11,7; -8,72</t>
+          <t>-11,79; -8,48</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>16,89; 20,22</t>
+          <t>16,91; 20,24</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>9,52; 12,64</t>
+          <t>9,37; 12,53</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-7,71; -6,1</t>
+          <t>-7,66; -6,02</t>
         </is>
       </c>
     </row>
@@ -2087,12 +2087,12 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>227,6; 420,37</t>
+          <t>232,26; 429,43</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>135,27; 295,8</t>
+          <t>134,83; 282,14</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>195,99; 306,98</t>
+          <t>194,7; 318,25</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>100,39; 180,62</t>
+          <t>95,79; 183,11</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>225,26; 321,02</t>
+          <t>226,33; 324,57</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>124,4; 198,62</t>
+          <t>125,23; 198,79</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">

--- a/data/trans_camb/P16A97-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A97-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,61</t>
+          <t>0,02; 3,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 3,98</t>
+          <t>0,12; 4,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 7,78</t>
+          <t>0,76; 7,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,52</t>
+          <t>0,72; 6,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,84; -0,69</t>
+          <t>-3,87; -0,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,44</t>
+          <t>0,95; 4,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,4</t>
+          <t>0,96; 4,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; -0,53</t>
+          <t>-2,2; -0,6</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-24,09; —</t>
+          <t>-31,21; 1535,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,87; —</t>
+          <t>-35,62; 2106,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,69; 808,7</t>
+          <t>13,25; 896,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,13; 851,12</t>
+          <t>2,28; 792,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,71; 644,9</t>
+          <t>43,43; 643,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,66; 612,18</t>
+          <t>43,86; 627,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 7,26</t>
+          <t>2,29; 7,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 4,24</t>
+          <t>-0,61; 4,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,15; -0,84</t>
+          <t>-3,14; -0,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 11,85</t>
+          <t>1,69; 11,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 4,08</t>
+          <t>-3,63; 4,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,95; -4,54</t>
+          <t>-10,23; -4,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,89; 7,61</t>
+          <t>3,0; 7,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,15</t>
+          <t>-0,85; 3,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,12; -2,59</t>
+          <t>-5,14; -2,66</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,45; 748,9</t>
+          <t>70,46; 789,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 471,88</t>
+          <t>-30,89; 404,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,88; 214,95</t>
+          <t>18,91; 243,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,42; 79,26</t>
+          <t>-41,38; 84,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>59,27; 267,59</t>
+          <t>62,07; 272,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,63; 108,76</t>
+          <t>-21,21; 110,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,38; 9,01</t>
+          <t>3,51; 8,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,04</t>
+          <t>0,35; 4,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; -0,82</t>
+          <t>-3,3; -0,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,09; 17,87</t>
+          <t>7,97; 17,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,44; 12,72</t>
+          <t>4,65; 12,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,07; -3,59</t>
+          <t>-8,23; -3,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,24; 11,57</t>
+          <t>6,21; 11,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,89; 7,5</t>
+          <t>3,11; 7,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,75; -2,36</t>
+          <t>-4,86; -2,41</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>114,64; 950,35</t>
+          <t>111,29; 928,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,71; 494,12</t>
+          <t>4,35; 470,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>105,45; 449,22</t>
+          <t>105,44; 433,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>59,6; 309,88</t>
+          <t>61,1; 309,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>138,73; 453,22</t>
+          <t>141,7; 450,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>67,23; 300,92</t>
+          <t>69,39; 296,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,08; 13,62</t>
+          <t>5,65; 13,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,37; 13,83</t>
+          <t>5,74; 14,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,72; -1,55</t>
+          <t>-5,71; -1,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,09; 29,47</t>
+          <t>15,55; 29,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,55; 17,3</t>
+          <t>3,75; 16,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,37; -10,77</t>
+          <t>-18,97; -10,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,12; 19,43</t>
+          <t>10,87; 19,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,9; 14,71</t>
+          <t>6,99; 14,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,81; -6,16</t>
+          <t>-10,6; -6,05</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>81,48; 766,69</t>
+          <t>94,2; 811,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>85,43; 784,09</t>
+          <t>92,81; 801,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>79,24; 259,0</t>
+          <t>84,13; 256,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,11; 149,41</t>
+          <t>19,53; 150,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>106,45; 293,24</t>
+          <t>110,49; 291,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>66,93; 225,64</t>
+          <t>67,91; 233,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17,44; 36,74</t>
+          <t>17,73; 37,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,07; 17,14</t>
+          <t>0,77; 16,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-19,01; -7,71</t>
+          <t>-19,03; -7,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>26,57; 46,61</t>
+          <t>25,92; 47,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,67; 30,11</t>
+          <t>7,74; 29,5</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-31,57; -17,11</t>
+          <t>-31,9; -17,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>24,69; 39,15</t>
+          <t>25,14; 39,02</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,56; 18,81</t>
+          <t>5,8; 19,76</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-23,19; -14,04</t>
+          <t>-23,06; -13,84</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>89,76; 436,44</t>
+          <t>97,24; 432,71</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 206,82</t>
+          <t>3,94; 186,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>90,78; 261,91</t>
+          <t>81,28; 267,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>25,51; 156,69</t>
+          <t>25,58; 164,09</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>110,95; 268,14</t>
+          <t>110,87; 261,01</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>24,48; 124,22</t>
+          <t>26,91; 131,67</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>33,06; 54,74</t>
+          <t>32,9; 52,81</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>16,3; 38,92</t>
+          <t>16,1; 36,99</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-42,16; -25,39</t>
+          <t>-41,98; -24,98</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>34,4; 57,31</t>
+          <t>34,39; 57,09</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>21,35; 46,02</t>
+          <t>22,53; 46,81</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-48,98; -28,69</t>
+          <t>-49,67; -28,88</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>37,77; 52,75</t>
+          <t>37,73; 52,3</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>22,78; 39,9</t>
+          <t>22,8; 38,96</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-42,56; -29,93</t>
+          <t>-42,69; -30,02</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>79,69; 214,68</t>
+          <t>81,15; 206,2</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>39,55; 157,43</t>
+          <t>39,06; 138,35</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>69,46; 192,92</t>
+          <t>70,19; 197,65</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>44,59; 150,63</t>
+          <t>45,1; 152,45</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>90,88; 175,08</t>
+          <t>90,39; 178,04</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>54,61; 133,15</t>
+          <t>55,37; 131,14</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>11,35; 15,45</t>
+          <t>11,37; 15,27</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>6,74; 10,38</t>
+          <t>6,68; 10,28</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>21,66; 27,87</t>
+          <t>22,22; 27,94</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>11,02; 16,55</t>
+          <t>11,37; 16,49</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-11,79; -8,48</t>
+          <t>-11,67; -8,73</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>16,91; 20,24</t>
+          <t>16,77; 20,26</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>9,37; 12,53</t>
+          <t>9,45; 12,59</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-7,66; -6,02</t>
+          <t>-7,74; -6,02</t>
         </is>
       </c>
     </row>
@@ -2087,12 +2087,12 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>232,26; 429,43</t>
+          <t>225,48; 413,62</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>134,83; 282,14</t>
+          <t>133,97; 279,89</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>194,7; 318,25</t>
+          <t>196,61; 313,53</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>95,79; 183,11</t>
+          <t>101,44; 181,54</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>226,33; 324,57</t>
+          <t>219,64; 325,69</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>125,23; 198,79</t>
+          <t>126,28; 201,3</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
